--- a/VersionRecords/Version 5.1.0.1 20161110/版本Bug和特性计划及评审表v5.1.0.1.xlsx
+++ b/VersionRecords/Version 5.1.0.1 20161110/版本Bug和特性计划及评审表v5.1.0.1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="102">
   <si>
     <t>No</t>
   </si>
@@ -367,6 +367,37 @@
   </si>
   <si>
     <t>免测</t>
+  </si>
+  <si>
+    <t>重要</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决账单重复的问题</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bug</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS，partnerpc ,partnerapp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏玉军</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>极光组</t>
   </si>
 </sst>
 </file>
@@ -535,7 +566,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -642,19 +673,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color auto="1"/>
@@ -701,7 +719,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -828,58 +846,94 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -894,44 +948,11 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="19" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1315,7 +1336,7 @@
   <dimension ref="A1:W170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1324,7 +1345,7 @@
     <col min="2" max="3" width="9.875" style="10" customWidth="1"/>
     <col min="4" max="4" width="64.75" style="11" customWidth="1"/>
     <col min="5" max="5" width="15" style="10" customWidth="1"/>
-    <col min="6" max="6" width="18" style="10" customWidth="1"/>
+    <col min="6" max="6" width="23.25" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.625" style="10" customWidth="1"/>
     <col min="8" max="8" width="12.125" style="11" customWidth="1"/>
     <col min="9" max="9" width="9.625" style="10" customWidth="1"/>
@@ -1345,16 +1366,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="8" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="62" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="13" t="s">
@@ -1410,19 +1431,19 @@
       </c>
     </row>
     <row r="2" spans="1:23" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="68">
+      <c r="A2" s="63">
         <v>1</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="65" t="s">
+      <c r="E2" s="60" t="s">
         <v>46</v>
       </c>
       <c r="F2" s="32" t="s">
@@ -1466,34 +1487,34 @@
       <c r="V2" s="27"/>
     </row>
     <row r="3" spans="1:23" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="68">
+      <c r="A3" s="63">
         <v>2</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="72" t="s">
+      <c r="E3" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="72" t="s">
+      <c r="F3" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="65" t="s">
+      <c r="G3" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="64">
+      <c r="H3" s="59">
         <v>42683</v>
       </c>
       <c r="I3" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="J3" s="64">
+      <c r="J3" s="59">
         <v>42684</v>
       </c>
       <c r="K3" s="32"/>
@@ -1509,7 +1530,7 @@
       <c r="O3" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="P3" s="64">
+      <c r="P3" s="59">
         <v>42684</v>
       </c>
       <c r="Q3" s="35" t="s">
@@ -1523,34 +1544,34 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="68">
+      <c r="A4" s="63">
         <v>3</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="73" t="s">
+      <c r="D4" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="72" t="s">
+      <c r="E4" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="65" t="s">
+      <c r="G4" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="64">
+      <c r="H4" s="59">
         <v>42683</v>
       </c>
       <c r="I4" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="J4" s="64">
+      <c r="J4" s="59">
         <v>42684</v>
       </c>
       <c r="K4" s="32"/>
@@ -1566,7 +1587,7 @@
       <c r="O4" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="P4" s="64">
+      <c r="P4" s="59">
         <v>42684</v>
       </c>
       <c r="Q4" s="35" t="s">
@@ -1580,34 +1601,34 @@
       <c r="W4" s="26"/>
     </row>
     <row r="5" spans="1:23" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="68">
+      <c r="A5" s="63">
         <v>4</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="72" t="s">
+      <c r="F5" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="65" t="s">
+      <c r="G5" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="64">
+      <c r="H5" s="59">
         <v>42683</v>
       </c>
       <c r="I5" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="J5" s="64">
+      <c r="J5" s="59">
         <v>42684</v>
       </c>
       <c r="K5" s="32"/>
@@ -1623,7 +1644,7 @@
       <c r="O5" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="P5" s="64">
+      <c r="P5" s="59">
         <v>42684</v>
       </c>
       <c r="Q5" s="35" t="s">
@@ -1637,34 +1658,34 @@
       <c r="W5" s="28"/>
     </row>
     <row r="6" spans="1:23" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="68">
+      <c r="A6" s="63">
         <v>5</v>
       </c>
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="73" t="s">
+      <c r="D6" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="72" t="s">
+      <c r="E6" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="72" t="s">
+      <c r="F6" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="65" t="s">
+      <c r="G6" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="64">
+      <c r="H6" s="59">
         <v>42683</v>
       </c>
       <c r="I6" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="J6" s="64">
+      <c r="J6" s="59">
         <v>42684</v>
       </c>
       <c r="K6" s="32"/>
@@ -1680,7 +1701,7 @@
       <c r="O6" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="P6" s="64">
+      <c r="P6" s="59">
         <v>42684</v>
       </c>
       <c r="Q6" s="35" t="s">
@@ -1694,19 +1715,19 @@
       <c r="W6" s="28"/>
     </row>
     <row r="7" spans="1:23" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="68">
+      <c r="A7" s="63">
         <v>6</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="75" t="s">
+      <c r="D7" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="66" t="s">
+      <c r="E7" s="61" t="s">
         <v>77</v>
       </c>
       <c r="F7" s="16" t="s">
@@ -1752,19 +1773,19 @@
       <c r="V7" s="27"/>
     </row>
     <row r="8" spans="1:23" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="68">
+      <c r="A8" s="63">
         <v>7</v>
       </c>
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="75" t="s">
+      <c r="D8" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="66" t="s">
+      <c r="E8" s="61" t="s">
         <v>77</v>
       </c>
       <c r="F8" s="16" t="s">
@@ -1810,19 +1831,19 @@
       <c r="V8" s="27"/>
     </row>
     <row r="9" spans="1:23" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="68">
+      <c r="A9" s="63">
         <v>8</v>
       </c>
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="76" t="s">
+      <c r="D9" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="66" t="s">
+      <c r="E9" s="61" t="s">
         <v>90</v>
       </c>
       <c r="F9" s="16" t="s">
@@ -1859,29 +1880,53 @@
       <c r="U9" s="28"/>
       <c r="V9" s="27"/>
     </row>
-    <row r="10" spans="1:23" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="27"/>
+    <row r="10" spans="1:23" s="77" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="63">
+        <v>9</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="34">
+        <v>42681</v>
+      </c>
+      <c r="I10" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" s="34">
+        <v>42681</v>
+      </c>
+      <c r="K10" s="32"/>
+      <c r="L10" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="M10" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="76"/>
     </row>
     <row r="11" spans="1:23" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="14"/>
@@ -2255,7 +2300,7 @@
       <c r="Q26" s="35"/>
       <c r="R26" s="39"/>
       <c r="S26" s="39"/>
-      <c r="T26" s="43"/>
+      <c r="T26" s="42"/>
       <c r="U26" s="38"/>
     </row>
     <row r="27" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
@@ -2423,7 +2468,7 @@
       <c r="A34" s="14"/>
       <c r="B34" s="40"/>
       <c r="C34" s="40"/>
-      <c r="D34" s="44"/>
+      <c r="D34" s="43"/>
       <c r="E34" s="32"/>
       <c r="F34" s="32"/>
       <c r="G34" s="32"/>
@@ -2440,13 +2485,13 @@
       <c r="R34" s="18"/>
       <c r="S34" s="18"/>
       <c r="T34" s="18"/>
-      <c r="U34" s="45"/>
+      <c r="U34" s="44"/>
     </row>
     <row r="35" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="14"/>
       <c r="B35" s="40"/>
       <c r="C35" s="40"/>
-      <c r="D35" s="44"/>
+      <c r="D35" s="43"/>
       <c r="E35" s="32"/>
       <c r="F35" s="32"/>
       <c r="G35" s="32"/>
@@ -2469,7 +2514,7 @@
       <c r="A36" s="14"/>
       <c r="B36" s="40"/>
       <c r="C36" s="40"/>
-      <c r="D36" s="44"/>
+      <c r="D36" s="43"/>
       <c r="E36" s="32"/>
       <c r="F36" s="32"/>
       <c r="G36" s="32"/>
@@ -2492,7 +2537,7 @@
       <c r="A37" s="14"/>
       <c r="B37" s="40"/>
       <c r="C37" s="40"/>
-      <c r="D37" s="44"/>
+      <c r="D37" s="43"/>
       <c r="E37" s="32"/>
       <c r="F37" s="32"/>
       <c r="G37" s="32"/>
@@ -2515,7 +2560,7 @@
       <c r="A38" s="14"/>
       <c r="B38" s="40"/>
       <c r="C38" s="40"/>
-      <c r="D38" s="44"/>
+      <c r="D38" s="43"/>
       <c r="E38" s="32"/>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>
@@ -2538,7 +2583,7 @@
       <c r="A39" s="14"/>
       <c r="B39" s="40"/>
       <c r="C39" s="40"/>
-      <c r="D39" s="44"/>
+      <c r="D39" s="43"/>
       <c r="E39" s="32"/>
       <c r="F39" s="32"/>
       <c r="G39" s="32"/>
@@ -2561,7 +2606,7 @@
       <c r="A40" s="14"/>
       <c r="B40" s="40"/>
       <c r="C40" s="40"/>
-      <c r="D40" s="44"/>
+      <c r="D40" s="43"/>
       <c r="E40" s="32"/>
       <c r="F40" s="32"/>
       <c r="G40" s="32"/>
@@ -2584,7 +2629,7 @@
       <c r="A41" s="14"/>
       <c r="B41" s="40"/>
       <c r="C41" s="40"/>
-      <c r="D41" s="44"/>
+      <c r="D41" s="43"/>
       <c r="E41" s="32"/>
       <c r="F41" s="32"/>
       <c r="G41" s="32"/>
@@ -2607,7 +2652,7 @@
       <c r="A42" s="14"/>
       <c r="B42" s="40"/>
       <c r="C42" s="40"/>
-      <c r="D42" s="44"/>
+      <c r="D42" s="43"/>
       <c r="E42" s="32"/>
       <c r="F42" s="32"/>
       <c r="G42" s="32"/>
@@ -2630,7 +2675,7 @@
       <c r="A43" s="14"/>
       <c r="B43" s="40"/>
       <c r="C43" s="40"/>
-      <c r="D43" s="44"/>
+      <c r="D43" s="43"/>
       <c r="E43" s="32"/>
       <c r="F43" s="32"/>
       <c r="G43" s="32"/>
@@ -2653,7 +2698,7 @@
       <c r="A44" s="14"/>
       <c r="B44" s="40"/>
       <c r="C44" s="40"/>
-      <c r="D44" s="44"/>
+      <c r="D44" s="43"/>
       <c r="E44" s="32"/>
       <c r="F44" s="32"/>
       <c r="G44" s="32"/>
@@ -2674,9 +2719,9 @@
     </row>
     <row r="45" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="14"/>
-      <c r="B45" s="46"/>
-      <c r="C45" s="46"/>
-      <c r="D45" s="47"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="46"/>
       <c r="E45" s="32"/>
       <c r="F45" s="32"/>
       <c r="G45" s="32"/>
@@ -2697,9 +2742,9 @@
     </row>
     <row r="46" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="14"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="46"/>
-      <c r="D46" s="47"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="46"/>
       <c r="E46" s="32"/>
       <c r="F46" s="32"/>
       <c r="G46" s="32"/>
@@ -2720,16 +2765,16 @@
     </row>
     <row r="47" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="14"/>
-      <c r="B47" s="46"/>
-      <c r="C47" s="46"/>
-      <c r="D47" s="48"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="47"/>
       <c r="E47" s="32"/>
       <c r="F47" s="32"/>
       <c r="G47" s="32"/>
       <c r="H47" s="34"/>
       <c r="I47" s="34"/>
       <c r="J47" s="34"/>
-      <c r="K47" s="49"/>
+      <c r="K47" s="48"/>
       <c r="L47" s="35"/>
       <c r="M47" s="35"/>
       <c r="N47" s="32"/>
@@ -2743,16 +2788,16 @@
     </row>
     <row r="48" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="14"/>
-      <c r="B48" s="46"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="48"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="47"/>
       <c r="E48" s="32"/>
       <c r="F48" s="32"/>
       <c r="G48" s="32"/>
       <c r="H48" s="34"/>
       <c r="I48" s="34"/>
       <c r="J48" s="34"/>
-      <c r="K48" s="49"/>
+      <c r="K48" s="48"/>
       <c r="L48" s="35"/>
       <c r="M48" s="35"/>
       <c r="N48" s="32"/>
@@ -2766,16 +2811,16 @@
     </row>
     <row r="49" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="14"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="48"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="47"/>
       <c r="E49" s="32"/>
       <c r="F49" s="32"/>
       <c r="G49" s="32"/>
       <c r="H49" s="34"/>
       <c r="I49" s="34"/>
       <c r="J49" s="34"/>
-      <c r="K49" s="49"/>
+      <c r="K49" s="48"/>
       <c r="L49" s="35"/>
       <c r="M49" s="35"/>
       <c r="N49" s="32"/>
@@ -2789,16 +2834,16 @@
     </row>
     <row r="50" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="14"/>
-      <c r="B50" s="46"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="48"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="47"/>
       <c r="E50" s="32"/>
       <c r="F50" s="32"/>
       <c r="G50" s="32"/>
       <c r="H50" s="34"/>
       <c r="I50" s="34"/>
       <c r="J50" s="34"/>
-      <c r="K50" s="49"/>
+      <c r="K50" s="48"/>
       <c r="L50" s="35"/>
       <c r="M50" s="35"/>
       <c r="N50" s="32"/>
@@ -2812,16 +2857,16 @@
     </row>
     <row r="51" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="14"/>
-      <c r="B51" s="46"/>
-      <c r="C51" s="46"/>
-      <c r="D51" s="48"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="47"/>
       <c r="E51" s="32"/>
       <c r="F51" s="32"/>
       <c r="G51" s="32"/>
       <c r="H51" s="34"/>
       <c r="I51" s="34"/>
       <c r="J51" s="34"/>
-      <c r="K51" s="49"/>
+      <c r="K51" s="48"/>
       <c r="L51" s="35"/>
       <c r="M51" s="35"/>
       <c r="N51" s="32"/>
@@ -2835,16 +2880,16 @@
     </row>
     <row r="52" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A52" s="14"/>
-      <c r="B52" s="46"/>
-      <c r="C52" s="46"/>
-      <c r="D52" s="48"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="47"/>
       <c r="E52" s="32"/>
       <c r="F52" s="32"/>
       <c r="G52" s="32"/>
       <c r="H52" s="34"/>
       <c r="I52" s="34"/>
       <c r="J52" s="34"/>
-      <c r="K52" s="49"/>
+      <c r="K52" s="48"/>
       <c r="L52" s="35"/>
       <c r="M52" s="35"/>
       <c r="N52" s="32"/>
@@ -2858,16 +2903,16 @@
     </row>
     <row r="53" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="14"/>
-      <c r="B53" s="46"/>
-      <c r="C53" s="46"/>
-      <c r="D53" s="48"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="47"/>
       <c r="E53" s="32"/>
       <c r="F53" s="32"/>
       <c r="G53" s="32"/>
       <c r="H53" s="34"/>
       <c r="I53" s="34"/>
       <c r="J53" s="34"/>
-      <c r="K53" s="49"/>
+      <c r="K53" s="48"/>
       <c r="L53" s="35"/>
       <c r="M53" s="35"/>
       <c r="N53" s="32"/>
@@ -5497,272 +5542,272 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="61"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="73"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="63"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="75"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="50" t="s">
+      <c r="H3" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="50" t="s">
+      <c r="I3" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="50" t="s">
+      <c r="J3" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="50" t="s">
+      <c r="K3" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="50" t="s">
+      <c r="L3" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="51" t="s">
+      <c r="M3" s="50" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="54"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="53"/>
     </row>
     <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="52"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="54"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="53"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="52"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="52"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="51"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="52"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="59"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="58"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="52"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="54"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="53"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="52"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
     </row>
     <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="52"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
     </row>
     <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="52"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
     </row>
     <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="52"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
     </row>
     <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="52"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
     </row>
     <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="52"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
     </row>
     <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="52"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
     </row>
     <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="52"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/VersionRecords/Version 5.1.0.1 20161110/版本Bug和特性计划及评审表v5.1.0.1.xlsx
+++ b/VersionRecords/Version 5.1.0.1 20161110/版本Bug和特性计划及评审表v5.1.0.1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="103">
   <si>
     <t>No</t>
   </si>
@@ -369,35 +369,31 @@
     <t>免测</t>
   </si>
   <si>
-    <t>重要</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>紧急</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <t>极光组</t>
   </si>
   <si>
     <t>解决账单重复的问题</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Fix Bug</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>BS，partnerpc ,partnerapp</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS/定时器，partnerpc ,partnerapp</t>
   </si>
   <si>
     <t>苏玉军</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>极光组</t>
+  </si>
+  <si>
+    <t>纪维玉</t>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>能</t>
+  </si>
+  <si>
+    <t>涉及的定时器syncJycRenterBillStatus.sh</t>
   </si>
 </sst>
 </file>
@@ -936,6 +932,12 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -947,12 +949,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1336,7 +1332,7 @@
   <dimension ref="A1:W170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1345,7 +1341,7 @@
     <col min="2" max="3" width="9.875" style="10" customWidth="1"/>
     <col min="4" max="4" width="64.75" style="11" customWidth="1"/>
     <col min="5" max="5" width="15" style="10" customWidth="1"/>
-    <col min="6" max="6" width="23.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.5" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.625" style="10" customWidth="1"/>
     <col min="8" max="8" width="12.125" style="11" customWidth="1"/>
     <col min="9" max="9" width="9.625" style="10" customWidth="1"/>
@@ -1880,27 +1876,27 @@
       <c r="U9" s="28"/>
       <c r="V9" s="27"/>
     </row>
-    <row r="10" spans="1:23" s="77" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:23" s="73" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="63">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="C10" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="E10" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="F10" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="F10" s="33" t="s">
-        <v>98</v>
-      </c>
       <c r="G10" s="32" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="H10" s="34">
         <v>42681</v>
@@ -1913,20 +1909,30 @@
       </c>
       <c r="K10" s="32"/>
       <c r="L10" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="M10" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="N10" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="O10" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="M10" s="32" t="s">
+      <c r="P10" s="34">
+        <v>42684</v>
+      </c>
+      <c r="Q10" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="35"/>
       <c r="R10" s="41"/>
       <c r="S10" s="41"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="35"/>
-      <c r="V10" s="76"/>
+      <c r="U10" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="V10" s="72"/>
     </row>
     <row r="11" spans="1:23" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="14"/>
@@ -5542,36 +5548,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="73"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="75"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="74"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="75"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="77"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="49" t="s">
